--- a/Hackathon_project/Excel/TestDATA.xlsx
+++ b/Hackathon_project/Excel/TestDATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303447\eclipse-workspace\Hackathon_project\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2303447_cognizant_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BCBF0F-D9D6-41E4-841E-E0DB3EE46CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E805F5-92BA-4B6E-BD4E-AB632C28341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,15 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -394,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E5AFB4-FA54-4AFF-BE7B-58EDD26BE49F}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,7 +408,7 @@
     <col min="7" max="7" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,53 +431,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="n">
         <v>2024.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4300635.0</v>
+        <v>208724.0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>246842.0</v>
+        <v>383052.0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>32500.0</v>
+        <v>45000.0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4579977.0</v>
+        <v>636776.0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>899365.0</v>
+        <v>4991276.0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>82.69999694824219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4.010000228881836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="n">
         <v>2025.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>899365.0</v>
+        <v>271953.0</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>10130.0</v>
+        <v>438178.0</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>6500.0</v>
+        <v>54000.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>915995.0</v>
+        <v>764131.0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.0</v>
+        <v>4719323.0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9.239999771118164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="n">
         <v>2026.0</v>
       </c>
@@ -503,7 +500,7 @@
         <v>14.960000038146973</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="n">
         <v>2027.0</v>
       </c>
@@ -526,7 +523,7 @@
         <v>21.219999313354492</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="n">
         <v>2028.0</v>
       </c>
@@ -549,7 +546,7 @@
         <v>28.06999969482422</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="n">
         <v>2029.0</v>
       </c>
@@ -572,7 +569,7 @@
         <v>35.54999923706055</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="n">
         <v>2030.0</v>
       </c>
@@ -595,7 +592,7 @@
         <v>43.7400016784668</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="n">
         <v>2031.0</v>
       </c>
@@ -618,7 +615,7 @@
         <v>52.70000076293945</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="n">
         <v>2032.0</v>
       </c>
@@ -641,7 +638,7 @@
         <v>62.4900016784668</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="n">
         <v>2033.0</v>
       </c>
@@ -664,7 +661,7 @@
         <v>73.20999908447266</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="n">
         <v>2034.0</v>
       </c>
@@ -687,53 +684,51 @@
         <v>84.93000030517578</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="n">
+    <row r="13">
+      <c r="A13" t="n" s="0">
         <v>2035.0</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" t="n" s="0">
         <v>666653.0</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" t="n" s="0">
         <v>43478.0</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>54000.0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>764131.0</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="D13" t="n" s="0">
+        <v>54000.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>764131.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
         <v>117037.0</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" t="n" s="0">
         <v>97.75</v>
       </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
         <v>2036.0</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" t="n" s="0">
         <v>117037.0</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" t="n" s="0">
         <v>1318.0</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n" s="0">
         <v>9000.0</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" t="n" s="0">
         <v>127355.0</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" t="n" s="0">
         <v>100.0</v>
       </c>
-      <c r="H14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
